--- a/PDIWT_MS_PiledWharf/放桩输入文件.xlsx
+++ b/PDIWT_MS_PiledWharf/放桩输入文件.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="44">
   <si>
     <t>斜度</t>
   </si>
@@ -156,6 +156,13 @@
   </si>
   <si>
     <t>桩水下重度(kN/m)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>环形</t>
+  </si>
+  <si>
+    <t>实心桩或桩端封闭</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1110,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1119,6 +1126,7 @@
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="5" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.75" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.375" customWidth="1"/>
     <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
@@ -1195,6 +1203,24 @@
       <c r="H2">
         <v>84</v>
       </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>0.3</v>
+      </c>
+      <c r="M2">
+        <v>25</v>
+      </c>
+      <c r="N2">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1221,6 +1247,24 @@
       <c r="H3">
         <v>84</v>
       </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.3</v>
+      </c>
+      <c r="M3">
+        <v>25</v>
+      </c>
+      <c r="N3">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1247,6 +1291,24 @@
       <c r="H4">
         <v>84</v>
       </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.3</v>
+      </c>
+      <c r="M4">
+        <v>25</v>
+      </c>
+      <c r="N4">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1273,6 +1335,24 @@
       <c r="H5">
         <v>84</v>
       </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.3</v>
+      </c>
+      <c r="M5">
+        <v>25</v>
+      </c>
+      <c r="N5">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1299,6 +1379,24 @@
       <c r="H6">
         <v>84</v>
       </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.3</v>
+      </c>
+      <c r="M6">
+        <v>25</v>
+      </c>
+      <c r="N6">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1325,6 +1423,24 @@
       <c r="H7">
         <v>84</v>
       </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.3</v>
+      </c>
+      <c r="M7">
+        <v>25</v>
+      </c>
+      <c r="N7">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1351,6 +1467,24 @@
       <c r="H8">
         <v>84</v>
       </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.3</v>
+      </c>
+      <c r="M8">
+        <v>25</v>
+      </c>
+      <c r="N8">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1377,6 +1511,24 @@
       <c r="H9">
         <v>84</v>
       </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.3</v>
+      </c>
+      <c r="M9">
+        <v>25</v>
+      </c>
+      <c r="N9">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1403,6 +1555,24 @@
       <c r="H10">
         <v>84</v>
       </c>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.3</v>
+      </c>
+      <c r="M10">
+        <v>25</v>
+      </c>
+      <c r="N10">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1429,6 +1599,24 @@
       <c r="H11">
         <v>84</v>
       </c>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.3</v>
+      </c>
+      <c r="M11">
+        <v>25</v>
+      </c>
+      <c r="N11">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1455,6 +1643,24 @@
       <c r="H12">
         <v>84</v>
       </c>
+      <c r="I12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.3</v>
+      </c>
+      <c r="M12">
+        <v>25</v>
+      </c>
+      <c r="N12">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1481,6 +1687,24 @@
       <c r="H13">
         <v>84</v>
       </c>
+      <c r="I13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.3</v>
+      </c>
+      <c r="M13">
+        <v>25</v>
+      </c>
+      <c r="N13">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1507,6 +1731,24 @@
       <c r="H14">
         <v>84</v>
       </c>
+      <c r="I14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.3</v>
+      </c>
+      <c r="M14">
+        <v>25</v>
+      </c>
+      <c r="N14">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1533,6 +1775,24 @@
       <c r="H15">
         <v>84</v>
       </c>
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.3</v>
+      </c>
+      <c r="M15">
+        <v>25</v>
+      </c>
+      <c r="N15">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1559,8 +1819,26 @@
       <c r="H16">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.3</v>
+      </c>
+      <c r="M16">
+        <v>25</v>
+      </c>
+      <c r="N16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1585,8 +1863,26 @@
       <c r="H17">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.3</v>
+      </c>
+      <c r="M17">
+        <v>25</v>
+      </c>
+      <c r="N17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1611,8 +1907,26 @@
       <c r="H18">
         <v>84</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.3</v>
+      </c>
+      <c r="M18">
+        <v>25</v>
+      </c>
+      <c r="N18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1637,8 +1951,26 @@
       <c r="H19">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.3</v>
+      </c>
+      <c r="M19">
+        <v>25</v>
+      </c>
+      <c r="N19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1663,8 +1995,26 @@
       <c r="H20">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.3</v>
+      </c>
+      <c r="M20">
+        <v>25</v>
+      </c>
+      <c r="N20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1689,8 +2039,26 @@
       <c r="H21">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.3</v>
+      </c>
+      <c r="M21">
+        <v>25</v>
+      </c>
+      <c r="N21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1715,8 +2083,26 @@
       <c r="H22">
         <v>84</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.3</v>
+      </c>
+      <c r="M22">
+        <v>25</v>
+      </c>
+      <c r="N22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1741,8 +2127,26 @@
       <c r="H23">
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.3</v>
+      </c>
+      <c r="M23">
+        <v>25</v>
+      </c>
+      <c r="N23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1767,8 +2171,26 @@
       <c r="H24">
         <v>84</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.3</v>
+      </c>
+      <c r="M24">
+        <v>25</v>
+      </c>
+      <c r="N24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1793,8 +2215,26 @@
       <c r="H25">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.3</v>
+      </c>
+      <c r="M25">
+        <v>25</v>
+      </c>
+      <c r="N25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1819,8 +2259,26 @@
       <c r="H26">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.3</v>
+      </c>
+      <c r="M26">
+        <v>25</v>
+      </c>
+      <c r="N26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1845,8 +2303,26 @@
       <c r="H27">
         <v>84</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.3</v>
+      </c>
+      <c r="M27">
+        <v>25</v>
+      </c>
+      <c r="N27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1871,8 +2347,26 @@
       <c r="H28">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.3</v>
+      </c>
+      <c r="M28">
+        <v>25</v>
+      </c>
+      <c r="N28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1897,8 +2391,26 @@
       <c r="H29">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.3</v>
+      </c>
+      <c r="M29">
+        <v>25</v>
+      </c>
+      <c r="N29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -1923,8 +2435,26 @@
       <c r="H30">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.3</v>
+      </c>
+      <c r="M30">
+        <v>25</v>
+      </c>
+      <c r="N30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -1949,8 +2479,26 @@
       <c r="H31">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0.3</v>
+      </c>
+      <c r="M31">
+        <v>25</v>
+      </c>
+      <c r="N31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -1975,8 +2523,26 @@
       <c r="H32">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>43</v>
+      </c>
+      <c r="J32" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0.3</v>
+      </c>
+      <c r="M32">
+        <v>25</v>
+      </c>
+      <c r="N32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -2001,8 +2567,26 @@
       <c r="H33">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" t="s">
+        <v>43</v>
+      </c>
+      <c r="J33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.3</v>
+      </c>
+      <c r="M33">
+        <v>25</v>
+      </c>
+      <c r="N33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -2027,8 +2611,26 @@
       <c r="H34">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
+        <v>43</v>
+      </c>
+      <c r="J34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.3</v>
+      </c>
+      <c r="M34">
+        <v>25</v>
+      </c>
+      <c r="N34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -2053,8 +2655,26 @@
       <c r="H35">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>43</v>
+      </c>
+      <c r="J35" t="s">
+        <v>42</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.3</v>
+      </c>
+      <c r="M35">
+        <v>25</v>
+      </c>
+      <c r="N35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -2079,8 +2699,26 @@
       <c r="H36">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" t="s">
+        <v>43</v>
+      </c>
+      <c r="J36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.3</v>
+      </c>
+      <c r="M36">
+        <v>25</v>
+      </c>
+      <c r="N36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -2105,8 +2743,26 @@
       <c r="H37">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" t="s">
+        <v>43</v>
+      </c>
+      <c r="J37" t="s">
+        <v>42</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>0.3</v>
+      </c>
+      <c r="M37">
+        <v>25</v>
+      </c>
+      <c r="N37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -2131,8 +2787,26 @@
       <c r="H38">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" t="s">
+        <v>43</v>
+      </c>
+      <c r="J38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>0.3</v>
+      </c>
+      <c r="M38">
+        <v>25</v>
+      </c>
+      <c r="N38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -2157,8 +2831,26 @@
       <c r="H39">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" t="s">
+        <v>43</v>
+      </c>
+      <c r="J39" t="s">
+        <v>42</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39">
+        <v>0.3</v>
+      </c>
+      <c r="M39">
+        <v>25</v>
+      </c>
+      <c r="N39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -2183,8 +2875,26 @@
       <c r="H40">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" t="s">
+        <v>43</v>
+      </c>
+      <c r="J40" t="s">
+        <v>42</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>0.3</v>
+      </c>
+      <c r="M40">
+        <v>25</v>
+      </c>
+      <c r="N40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -2209,8 +2919,26 @@
       <c r="H41">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J41" t="s">
+        <v>42</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>0.3</v>
+      </c>
+      <c r="M41">
+        <v>25</v>
+      </c>
+      <c r="N41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -2235,8 +2963,26 @@
       <c r="H42">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" t="s">
+        <v>43</v>
+      </c>
+      <c r="J42" t="s">
+        <v>42</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <v>0.3</v>
+      </c>
+      <c r="M42">
+        <v>25</v>
+      </c>
+      <c r="N42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -2261,8 +3007,26 @@
       <c r="H43">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" t="s">
+        <v>43</v>
+      </c>
+      <c r="J43" t="s">
+        <v>42</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <v>0.3</v>
+      </c>
+      <c r="M43">
+        <v>25</v>
+      </c>
+      <c r="N43">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -2287,8 +3051,26 @@
       <c r="H44">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" t="s">
+        <v>43</v>
+      </c>
+      <c r="J44" t="s">
+        <v>42</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <v>0.3</v>
+      </c>
+      <c r="M44">
+        <v>25</v>
+      </c>
+      <c r="N44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -2313,8 +3095,26 @@
       <c r="H45">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45" t="s">
+        <v>43</v>
+      </c>
+      <c r="J45" t="s">
+        <v>42</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>0.3</v>
+      </c>
+      <c r="M45">
+        <v>25</v>
+      </c>
+      <c r="N45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -2339,8 +3139,26 @@
       <c r="H46">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" t="s">
+        <v>43</v>
+      </c>
+      <c r="J46" t="s">
+        <v>42</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>0.3</v>
+      </c>
+      <c r="M46">
+        <v>25</v>
+      </c>
+      <c r="N46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -2365,8 +3183,26 @@
       <c r="H47">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47" t="s">
+        <v>43</v>
+      </c>
+      <c r="J47" t="s">
+        <v>42</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>0.3</v>
+      </c>
+      <c r="M47">
+        <v>25</v>
+      </c>
+      <c r="N47">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -2391,8 +3227,26 @@
       <c r="H48">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48" t="s">
+        <v>43</v>
+      </c>
+      <c r="J48" t="s">
+        <v>42</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>0.3</v>
+      </c>
+      <c r="M48">
+        <v>25</v>
+      </c>
+      <c r="N48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -2417,8 +3271,26 @@
       <c r="H49">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49" t="s">
+        <v>43</v>
+      </c>
+      <c r="J49" t="s">
+        <v>42</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>0.3</v>
+      </c>
+      <c r="M49">
+        <v>25</v>
+      </c>
+      <c r="N49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -2443,8 +3315,26 @@
       <c r="H50">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50" t="s">
+        <v>43</v>
+      </c>
+      <c r="J50" t="s">
+        <v>42</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>0.3</v>
+      </c>
+      <c r="M50">
+        <v>25</v>
+      </c>
+      <c r="N50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -2469,8 +3359,26 @@
       <c r="H51">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51" t="s">
+        <v>43</v>
+      </c>
+      <c r="J51" t="s">
+        <v>42</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <v>0.3</v>
+      </c>
+      <c r="M51">
+        <v>25</v>
+      </c>
+      <c r="N51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>25</v>
       </c>
@@ -2495,8 +3403,26 @@
       <c r="H52">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52" t="s">
+        <v>43</v>
+      </c>
+      <c r="J52" t="s">
+        <v>42</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>0.3</v>
+      </c>
+      <c r="M52">
+        <v>25</v>
+      </c>
+      <c r="N52">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -2521,8 +3447,26 @@
       <c r="H53">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53" t="s">
+        <v>43</v>
+      </c>
+      <c r="J53" t="s">
+        <v>42</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <v>0.3</v>
+      </c>
+      <c r="M53">
+        <v>25</v>
+      </c>
+      <c r="N53">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -2547,8 +3491,26 @@
       <c r="H54">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54" t="s">
+        <v>43</v>
+      </c>
+      <c r="J54" t="s">
+        <v>42</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="L54">
+        <v>0.3</v>
+      </c>
+      <c r="M54">
+        <v>25</v>
+      </c>
+      <c r="N54">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -2573,8 +3535,26 @@
       <c r="H55">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55" t="s">
+        <v>43</v>
+      </c>
+      <c r="J55" t="s">
+        <v>42</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>0.3</v>
+      </c>
+      <c r="M55">
+        <v>25</v>
+      </c>
+      <c r="N55">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>25</v>
       </c>
@@ -2599,8 +3579,26 @@
       <c r="H56">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56" t="s">
+        <v>43</v>
+      </c>
+      <c r="J56" t="s">
+        <v>42</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>0.3</v>
+      </c>
+      <c r="M56">
+        <v>25</v>
+      </c>
+      <c r="N56">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>25</v>
       </c>
@@ -2625,8 +3623,26 @@
       <c r="H57">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57" t="s">
+        <v>43</v>
+      </c>
+      <c r="J57" t="s">
+        <v>42</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57">
+        <v>0.3</v>
+      </c>
+      <c r="M57">
+        <v>25</v>
+      </c>
+      <c r="N57">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>25</v>
       </c>
@@ -2651,8 +3667,26 @@
       <c r="H58">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58" t="s">
+        <v>43</v>
+      </c>
+      <c r="J58" t="s">
+        <v>42</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>0.3</v>
+      </c>
+      <c r="M58">
+        <v>25</v>
+      </c>
+      <c r="N58">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>25</v>
       </c>
@@ -2677,8 +3711,26 @@
       <c r="H59">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59" t="s">
+        <v>43</v>
+      </c>
+      <c r="J59" t="s">
+        <v>42</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>0.3</v>
+      </c>
+      <c r="M59">
+        <v>25</v>
+      </c>
+      <c r="N59">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -2703,8 +3755,26 @@
       <c r="H60">
         <v>84</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60" t="s">
+        <v>43</v>
+      </c>
+      <c r="J60" t="s">
+        <v>42</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>0.3</v>
+      </c>
+      <c r="M60">
+        <v>25</v>
+      </c>
+      <c r="N60">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>26</v>
       </c>
@@ -2729,8 +3799,26 @@
       <c r="H61">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61" t="s">
+        <v>43</v>
+      </c>
+      <c r="J61" t="s">
+        <v>42</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="L61">
+        <v>0.3</v>
+      </c>
+      <c r="M61">
+        <v>25</v>
+      </c>
+      <c r="N61">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -2755,8 +3843,26 @@
       <c r="H62">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62" t="s">
+        <v>43</v>
+      </c>
+      <c r="J62" t="s">
+        <v>42</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <v>0.3</v>
+      </c>
+      <c r="M62">
+        <v>25</v>
+      </c>
+      <c r="N62">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>26</v>
       </c>
@@ -2781,8 +3887,26 @@
       <c r="H63">
         <v>84</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63" t="s">
+        <v>43</v>
+      </c>
+      <c r="J63" t="s">
+        <v>42</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
+      <c r="L63">
+        <v>0.3</v>
+      </c>
+      <c r="M63">
+        <v>25</v>
+      </c>
+      <c r="N63">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>26</v>
       </c>
@@ -2807,8 +3931,26 @@
       <c r="H64">
         <v>84</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64" t="s">
+        <v>43</v>
+      </c>
+      <c r="J64" t="s">
+        <v>42</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <v>0.3</v>
+      </c>
+      <c r="M64">
+        <v>25</v>
+      </c>
+      <c r="N64">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>26</v>
       </c>
@@ -2833,8 +3975,26 @@
       <c r="H65">
         <v>84</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65" t="s">
+        <v>43</v>
+      </c>
+      <c r="J65" t="s">
+        <v>42</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65">
+        <v>0.3</v>
+      </c>
+      <c r="M65">
+        <v>25</v>
+      </c>
+      <c r="N65">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>26</v>
       </c>
@@ -2859,8 +4019,26 @@
       <c r="H66">
         <v>84</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66" t="s">
+        <v>43</v>
+      </c>
+      <c r="J66" t="s">
+        <v>42</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+      <c r="L66">
+        <v>0.3</v>
+      </c>
+      <c r="M66">
+        <v>25</v>
+      </c>
+      <c r="N66">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>26</v>
       </c>
@@ -2885,8 +4063,26 @@
       <c r="H67">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67" t="s">
+        <v>43</v>
+      </c>
+      <c r="J67" t="s">
+        <v>42</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>0.3</v>
+      </c>
+      <c r="M67">
+        <v>25</v>
+      </c>
+      <c r="N67">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>26</v>
       </c>
@@ -2911,8 +4107,26 @@
       <c r="H68">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68" t="s">
+        <v>43</v>
+      </c>
+      <c r="J68" t="s">
+        <v>42</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68">
+        <v>0.3</v>
+      </c>
+      <c r="M68">
+        <v>25</v>
+      </c>
+      <c r="N68">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>26</v>
       </c>
@@ -2937,8 +4151,26 @@
       <c r="H69">
         <v>84</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69" t="s">
+        <v>43</v>
+      </c>
+      <c r="J69" t="s">
+        <v>42</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <v>0.3</v>
+      </c>
+      <c r="M69">
+        <v>25</v>
+      </c>
+      <c r="N69">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>27</v>
       </c>
@@ -2963,8 +4195,26 @@
       <c r="H70">
         <v>84</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70" t="s">
+        <v>43</v>
+      </c>
+      <c r="J70" t="s">
+        <v>42</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <v>0.3</v>
+      </c>
+      <c r="M70">
+        <v>25</v>
+      </c>
+      <c r="N70">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>27</v>
       </c>
@@ -2989,8 +4239,26 @@
       <c r="H71">
         <v>84</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71" t="s">
+        <v>43</v>
+      </c>
+      <c r="J71" t="s">
+        <v>42</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>0.3</v>
+      </c>
+      <c r="M71">
+        <v>25</v>
+      </c>
+      <c r="N71">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>27</v>
       </c>
@@ -3015,8 +4283,26 @@
       <c r="H72">
         <v>84</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72" t="s">
+        <v>43</v>
+      </c>
+      <c r="J72" t="s">
+        <v>42</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <v>0.3</v>
+      </c>
+      <c r="M72">
+        <v>25</v>
+      </c>
+      <c r="N72">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>27</v>
       </c>
@@ -3041,8 +4327,26 @@
       <c r="H73">
         <v>84</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73" t="s">
+        <v>43</v>
+      </c>
+      <c r="J73" t="s">
+        <v>42</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>0.3</v>
+      </c>
+      <c r="M73">
+        <v>25</v>
+      </c>
+      <c r="N73">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>27</v>
       </c>
@@ -3067,8 +4371,26 @@
       <c r="H74">
         <v>84</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74" t="s">
+        <v>43</v>
+      </c>
+      <c r="J74" t="s">
+        <v>42</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+      <c r="L74">
+        <v>0.3</v>
+      </c>
+      <c r="M74">
+        <v>25</v>
+      </c>
+      <c r="N74">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>27</v>
       </c>
@@ -3093,8 +4415,26 @@
       <c r="H75">
         <v>84</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75" t="s">
+        <v>43</v>
+      </c>
+      <c r="J75" t="s">
+        <v>42</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>0.3</v>
+      </c>
+      <c r="M75">
+        <v>25</v>
+      </c>
+      <c r="N75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>27</v>
       </c>
@@ -3119,8 +4459,26 @@
       <c r="H76">
         <v>84</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76" t="s">
+        <v>43</v>
+      </c>
+      <c r="J76" t="s">
+        <v>42</v>
+      </c>
+      <c r="K76">
+        <v>2</v>
+      </c>
+      <c r="L76">
+        <v>0.3</v>
+      </c>
+      <c r="M76">
+        <v>25</v>
+      </c>
+      <c r="N76">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>27</v>
       </c>
@@ -3145,8 +4503,26 @@
       <c r="H77">
         <v>84</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77" t="s">
+        <v>43</v>
+      </c>
+      <c r="J77" t="s">
+        <v>42</v>
+      </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
+      <c r="L77">
+        <v>0.3</v>
+      </c>
+      <c r="M77">
+        <v>25</v>
+      </c>
+      <c r="N77">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>27</v>
       </c>
@@ -3171,8 +4547,26 @@
       <c r="H78">
         <v>84</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78" t="s">
+        <v>43</v>
+      </c>
+      <c r="J78" t="s">
+        <v>42</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="L78">
+        <v>0.3</v>
+      </c>
+      <c r="M78">
+        <v>25</v>
+      </c>
+      <c r="N78">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>27</v>
       </c>
@@ -3197,8 +4591,26 @@
       <c r="H79">
         <v>84</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79" t="s">
+        <v>43</v>
+      </c>
+      <c r="J79" t="s">
+        <v>42</v>
+      </c>
+      <c r="K79">
+        <v>2</v>
+      </c>
+      <c r="L79">
+        <v>0.3</v>
+      </c>
+      <c r="M79">
+        <v>25</v>
+      </c>
+      <c r="N79">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>27</v>
       </c>
@@ -3223,8 +4635,26 @@
       <c r="H80">
         <v>84</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80" t="s">
+        <v>43</v>
+      </c>
+      <c r="J80" t="s">
+        <v>42</v>
+      </c>
+      <c r="K80">
+        <v>2</v>
+      </c>
+      <c r="L80">
+        <v>0.3</v>
+      </c>
+      <c r="M80">
+        <v>25</v>
+      </c>
+      <c r="N80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>27</v>
       </c>
@@ -3249,8 +4679,26 @@
       <c r="H81">
         <v>84</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81" t="s">
+        <v>43</v>
+      </c>
+      <c r="J81" t="s">
+        <v>42</v>
+      </c>
+      <c r="K81">
+        <v>2</v>
+      </c>
+      <c r="L81">
+        <v>0.3</v>
+      </c>
+      <c r="M81">
+        <v>25</v>
+      </c>
+      <c r="N81">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>27</v>
       </c>
@@ -3275,8 +4723,26 @@
       <c r="H82">
         <v>84</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82" t="s">
+        <v>43</v>
+      </c>
+      <c r="J82" t="s">
+        <v>42</v>
+      </c>
+      <c r="K82">
+        <v>2</v>
+      </c>
+      <c r="L82">
+        <v>0.3</v>
+      </c>
+      <c r="M82">
+        <v>25</v>
+      </c>
+      <c r="N82">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>27</v>
       </c>
@@ -3301,8 +4767,26 @@
       <c r="H83">
         <v>84</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I83" t="s">
+        <v>43</v>
+      </c>
+      <c r="J83" t="s">
+        <v>42</v>
+      </c>
+      <c r="K83">
+        <v>2</v>
+      </c>
+      <c r="L83">
+        <v>0.3</v>
+      </c>
+      <c r="M83">
+        <v>25</v>
+      </c>
+      <c r="N83">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>27</v>
       </c>
@@ -3327,8 +4811,26 @@
       <c r="H84">
         <v>84</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I84" t="s">
+        <v>43</v>
+      </c>
+      <c r="J84" t="s">
+        <v>42</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <v>0.3</v>
+      </c>
+      <c r="M84">
+        <v>25</v>
+      </c>
+      <c r="N84">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>27</v>
       </c>
@@ -3353,8 +4855,26 @@
       <c r="H85">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85" t="s">
+        <v>43</v>
+      </c>
+      <c r="J85" t="s">
+        <v>42</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>0.3</v>
+      </c>
+      <c r="M85">
+        <v>25</v>
+      </c>
+      <c r="N85">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>28</v>
       </c>
@@ -3379,8 +4899,26 @@
       <c r="H86">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I86" t="s">
+        <v>43</v>
+      </c>
+      <c r="J86" t="s">
+        <v>42</v>
+      </c>
+      <c r="K86">
+        <v>2</v>
+      </c>
+      <c r="L86">
+        <v>0.3</v>
+      </c>
+      <c r="M86">
+        <v>25</v>
+      </c>
+      <c r="N86">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>28</v>
       </c>
@@ -3405,8 +4943,26 @@
       <c r="H87">
         <v>84</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87" t="s">
+        <v>43</v>
+      </c>
+      <c r="J87" t="s">
+        <v>42</v>
+      </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <v>0.3</v>
+      </c>
+      <c r="M87">
+        <v>25</v>
+      </c>
+      <c r="N87">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>28</v>
       </c>
@@ -3431,8 +4987,26 @@
       <c r="H88">
         <v>84</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88" t="s">
+        <v>43</v>
+      </c>
+      <c r="J88" t="s">
+        <v>42</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>0.3</v>
+      </c>
+      <c r="M88">
+        <v>25</v>
+      </c>
+      <c r="N88">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>28</v>
       </c>
@@ -3457,8 +5031,26 @@
       <c r="H89">
         <v>84</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I89" t="s">
+        <v>43</v>
+      </c>
+      <c r="J89" t="s">
+        <v>42</v>
+      </c>
+      <c r="K89">
+        <v>2</v>
+      </c>
+      <c r="L89">
+        <v>0.3</v>
+      </c>
+      <c r="M89">
+        <v>25</v>
+      </c>
+      <c r="N89">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>28</v>
       </c>
@@ -3483,8 +5075,26 @@
       <c r="H90">
         <v>84</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90" t="s">
+        <v>43</v>
+      </c>
+      <c r="J90" t="s">
+        <v>42</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>0.3</v>
+      </c>
+      <c r="M90">
+        <v>25</v>
+      </c>
+      <c r="N90">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>28</v>
       </c>
@@ -3509,8 +5119,26 @@
       <c r="H91">
         <v>84</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I91" t="s">
+        <v>43</v>
+      </c>
+      <c r="J91" t="s">
+        <v>42</v>
+      </c>
+      <c r="K91">
+        <v>2</v>
+      </c>
+      <c r="L91">
+        <v>0.3</v>
+      </c>
+      <c r="M91">
+        <v>25</v>
+      </c>
+      <c r="N91">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>28</v>
       </c>
@@ -3535,8 +5163,26 @@
       <c r="H92">
         <v>84</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92" t="s">
+        <v>43</v>
+      </c>
+      <c r="J92" t="s">
+        <v>42</v>
+      </c>
+      <c r="K92">
+        <v>2</v>
+      </c>
+      <c r="L92">
+        <v>0.3</v>
+      </c>
+      <c r="M92">
+        <v>25</v>
+      </c>
+      <c r="N92">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>28</v>
       </c>
@@ -3561,8 +5207,26 @@
       <c r="H93">
         <v>84</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93" t="s">
+        <v>43</v>
+      </c>
+      <c r="J93" t="s">
+        <v>42</v>
+      </c>
+      <c r="K93">
+        <v>2</v>
+      </c>
+      <c r="L93">
+        <v>0.3</v>
+      </c>
+      <c r="M93">
+        <v>25</v>
+      </c>
+      <c r="N93">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>29</v>
       </c>
@@ -3587,8 +5251,26 @@
       <c r="H94">
         <v>84</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94" t="s">
+        <v>43</v>
+      </c>
+      <c r="J94" t="s">
+        <v>42</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="L94">
+        <v>0.3</v>
+      </c>
+      <c r="M94">
+        <v>25</v>
+      </c>
+      <c r="N94">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>29</v>
       </c>
@@ -3613,8 +5295,26 @@
       <c r="H95">
         <v>84</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I95" t="s">
+        <v>43</v>
+      </c>
+      <c r="J95" t="s">
+        <v>42</v>
+      </c>
+      <c r="K95">
+        <v>2</v>
+      </c>
+      <c r="L95">
+        <v>0.3</v>
+      </c>
+      <c r="M95">
+        <v>25</v>
+      </c>
+      <c r="N95">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>29</v>
       </c>
@@ -3639,8 +5339,26 @@
       <c r="H96">
         <v>84</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I96" t="s">
+        <v>43</v>
+      </c>
+      <c r="J96" t="s">
+        <v>42</v>
+      </c>
+      <c r="K96">
+        <v>2</v>
+      </c>
+      <c r="L96">
+        <v>0.3</v>
+      </c>
+      <c r="M96">
+        <v>25</v>
+      </c>
+      <c r="N96">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>29</v>
       </c>
@@ -3665,8 +5383,26 @@
       <c r="H97">
         <v>84</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I97" t="s">
+        <v>43</v>
+      </c>
+      <c r="J97" t="s">
+        <v>42</v>
+      </c>
+      <c r="K97">
+        <v>2</v>
+      </c>
+      <c r="L97">
+        <v>0.3</v>
+      </c>
+      <c r="M97">
+        <v>25</v>
+      </c>
+      <c r="N97">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>29</v>
       </c>
@@ -3691,8 +5427,26 @@
       <c r="H98">
         <v>84</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I98" t="s">
+        <v>43</v>
+      </c>
+      <c r="J98" t="s">
+        <v>42</v>
+      </c>
+      <c r="K98">
+        <v>2</v>
+      </c>
+      <c r="L98">
+        <v>0.3</v>
+      </c>
+      <c r="M98">
+        <v>25</v>
+      </c>
+      <c r="N98">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>29</v>
       </c>
@@ -3717,8 +5471,26 @@
       <c r="H99">
         <v>84</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I99" t="s">
+        <v>43</v>
+      </c>
+      <c r="J99" t="s">
+        <v>42</v>
+      </c>
+      <c r="K99">
+        <v>2</v>
+      </c>
+      <c r="L99">
+        <v>0.3</v>
+      </c>
+      <c r="M99">
+        <v>25</v>
+      </c>
+      <c r="N99">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>29</v>
       </c>
@@ -3743,8 +5515,26 @@
       <c r="H100">
         <v>84</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I100" t="s">
+        <v>43</v>
+      </c>
+      <c r="J100" t="s">
+        <v>42</v>
+      </c>
+      <c r="K100">
+        <v>2</v>
+      </c>
+      <c r="L100">
+        <v>0.3</v>
+      </c>
+      <c r="M100">
+        <v>25</v>
+      </c>
+      <c r="N100">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>29</v>
       </c>
@@ -3769,8 +5559,26 @@
       <c r="H101">
         <v>84</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I101" t="s">
+        <v>43</v>
+      </c>
+      <c r="J101" t="s">
+        <v>42</v>
+      </c>
+      <c r="K101">
+        <v>2</v>
+      </c>
+      <c r="L101">
+        <v>0.3</v>
+      </c>
+      <c r="M101">
+        <v>25</v>
+      </c>
+      <c r="N101">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -3795,8 +5603,26 @@
       <c r="H102">
         <v>82</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I102" t="s">
+        <v>43</v>
+      </c>
+      <c r="J102" t="s">
+        <v>42</v>
+      </c>
+      <c r="K102">
+        <v>2</v>
+      </c>
+      <c r="L102">
+        <v>0.3</v>
+      </c>
+      <c r="M102">
+        <v>25</v>
+      </c>
+      <c r="N102">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -3821,8 +5647,26 @@
       <c r="H103">
         <v>82</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I103" t="s">
+        <v>43</v>
+      </c>
+      <c r="J103" t="s">
+        <v>42</v>
+      </c>
+      <c r="K103">
+        <v>2</v>
+      </c>
+      <c r="L103">
+        <v>0.3</v>
+      </c>
+      <c r="M103">
+        <v>25</v>
+      </c>
+      <c r="N103">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>21</v>
       </c>
@@ -3847,8 +5691,26 @@
       <c r="H104">
         <v>82</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I104" t="s">
+        <v>43</v>
+      </c>
+      <c r="J104" t="s">
+        <v>42</v>
+      </c>
+      <c r="K104">
+        <v>2</v>
+      </c>
+      <c r="L104">
+        <v>0.3</v>
+      </c>
+      <c r="M104">
+        <v>25</v>
+      </c>
+      <c r="N104">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>22</v>
       </c>
@@ -3873,8 +5735,26 @@
       <c r="H105">
         <v>82</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I105" t="s">
+        <v>43</v>
+      </c>
+      <c r="J105" t="s">
+        <v>42</v>
+      </c>
+      <c r="K105">
+        <v>2</v>
+      </c>
+      <c r="L105">
+        <v>0.3</v>
+      </c>
+      <c r="M105">
+        <v>25</v>
+      </c>
+      <c r="N105">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>23</v>
       </c>
@@ -3899,8 +5779,26 @@
       <c r="H106">
         <v>82</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I106" t="s">
+        <v>43</v>
+      </c>
+      <c r="J106" t="s">
+        <v>42</v>
+      </c>
+      <c r="K106">
+        <v>2</v>
+      </c>
+      <c r="L106">
+        <v>0.3</v>
+      </c>
+      <c r="M106">
+        <v>25</v>
+      </c>
+      <c r="N106">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>24</v>
       </c>
@@ -3925,8 +5823,26 @@
       <c r="H107">
         <v>82</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I107" t="s">
+        <v>43</v>
+      </c>
+      <c r="J107" t="s">
+        <v>42</v>
+      </c>
+      <c r="K107">
+        <v>2</v>
+      </c>
+      <c r="L107">
+        <v>0.3</v>
+      </c>
+      <c r="M107">
+        <v>25</v>
+      </c>
+      <c r="N107">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>25</v>
       </c>
@@ -3951,8 +5867,26 @@
       <c r="H108">
         <v>82</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I108" t="s">
+        <v>43</v>
+      </c>
+      <c r="J108" t="s">
+        <v>42</v>
+      </c>
+      <c r="K108">
+        <v>2</v>
+      </c>
+      <c r="L108">
+        <v>0.3</v>
+      </c>
+      <c r="M108">
+        <v>25</v>
+      </c>
+      <c r="N108">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>26</v>
       </c>
@@ -3977,8 +5911,26 @@
       <c r="H109">
         <v>82</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I109" t="s">
+        <v>43</v>
+      </c>
+      <c r="J109" t="s">
+        <v>42</v>
+      </c>
+      <c r="K109">
+        <v>2</v>
+      </c>
+      <c r="L109">
+        <v>0.3</v>
+      </c>
+      <c r="M109">
+        <v>25</v>
+      </c>
+      <c r="N109">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>27</v>
       </c>
@@ -4003,8 +5955,26 @@
       <c r="H110">
         <v>82</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I110" t="s">
+        <v>43</v>
+      </c>
+      <c r="J110" t="s">
+        <v>42</v>
+      </c>
+      <c r="K110">
+        <v>2</v>
+      </c>
+      <c r="L110">
+        <v>0.3</v>
+      </c>
+      <c r="M110">
+        <v>25</v>
+      </c>
+      <c r="N110">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>27</v>
       </c>
@@ -4029,8 +5999,26 @@
       <c r="H111">
         <v>82</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I111" t="s">
+        <v>43</v>
+      </c>
+      <c r="J111" t="s">
+        <v>42</v>
+      </c>
+      <c r="K111">
+        <v>2</v>
+      </c>
+      <c r="L111">
+        <v>0.3</v>
+      </c>
+      <c r="M111">
+        <v>25</v>
+      </c>
+      <c r="N111">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>28</v>
       </c>
@@ -4055,8 +6043,26 @@
       <c r="H112">
         <v>82</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I112" t="s">
+        <v>43</v>
+      </c>
+      <c r="J112" t="s">
+        <v>42</v>
+      </c>
+      <c r="K112">
+        <v>2</v>
+      </c>
+      <c r="L112">
+        <v>0.3</v>
+      </c>
+      <c r="M112">
+        <v>25</v>
+      </c>
+      <c r="N112">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>29</v>
       </c>
@@ -4080,6 +6086,24 @@
       </c>
       <c r="H113">
         <v>82</v>
+      </c>
+      <c r="I113" t="s">
+        <v>43</v>
+      </c>
+      <c r="J113" t="s">
+        <v>42</v>
+      </c>
+      <c r="K113">
+        <v>2</v>
+      </c>
+      <c r="L113">
+        <v>0.3</v>
+      </c>
+      <c r="M113">
+        <v>25</v>
+      </c>
+      <c r="N113">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
